--- a/Adult Income with the sample of 1k/Performance_metrics/model_perf_metrics_mean_of_iterations__200_300__1_2_3_5.xlsx
+++ b/Adult Income with the sample of 1k/Performance_metrics/model_perf_metrics_mean_of_iterations__200_300__1_2_3_5.xlsx
@@ -502,16 +502,16 @@
         <v>705</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6161737306355983</v>
+        <v>0.6166407111883714</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01068225</v>
+        <v>0.01460145</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7362687412831243</v>
+        <v>0.7364082112970712</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00656446</v>
+        <v>0.007929540000000001</v>
       </c>
     </row>
     <row r="3">
@@ -570,16 +570,16 @@
         <v>905</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08590963392835917</v>
+        <v>0.08923874040794745</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03687802</v>
+        <v>0.01476161</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5151346757322176</v>
+        <v>0.5156555090655509</v>
       </c>
       <c r="J4" t="n">
-        <v>0.009586900000000001</v>
+        <v>0.00493742</v>
       </c>
     </row>
     <row r="5">
@@ -604,16 +604,16 @@
         <v>1105</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06461521454054198</v>
+        <v>0.08725987225890756</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0258779</v>
+        <v>0.01642172</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5108743026499304</v>
+        <v>0.5148557357043236</v>
       </c>
       <c r="J5" t="n">
-        <v>0.00598036</v>
+        <v>0.00536145</v>
       </c>
     </row>
     <row r="6">
@@ -638,16 +638,16 @@
         <v>1305</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07885526124245888</v>
+        <v>0.08097387837383979</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06021463</v>
+        <v>0.00696614</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5148644525801953</v>
+        <v>0.5113406555090656</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01777847</v>
+        <v>0.00359259</v>
       </c>
     </row>
     <row r="7">
@@ -672,16 +672,16 @@
         <v>1705</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06559642148225375</v>
+        <v>0.08424486612794542</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02409528</v>
+        <v>0.00653135</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5093030857740587</v>
+        <v>0.5119639121338913</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00602118</v>
+        <v>0.00314771</v>
       </c>
     </row>
     <row r="8">
@@ -706,16 +706,16 @@
         <v>1005</v>
       </c>
       <c r="G8" t="n">
-        <v>0.08230540403475484</v>
+        <v>0.1191079120988301</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06297693</v>
+        <v>0.07127762999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>0.515766649232915</v>
+        <v>0.5254118723849374</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01939263</v>
+        <v>0.02349065</v>
       </c>
     </row>
     <row r="9">
@@ -740,16 +740,16 @@
         <v>1305</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05677861960914021</v>
+        <v>0.1062999096076464</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03087961</v>
+        <v>0.07885</v>
       </c>
       <c r="I9" t="n">
-        <v>0.508093619246862</v>
+        <v>0.5185865585774059</v>
       </c>
       <c r="J9" t="n">
-        <v>0.00776918</v>
+        <v>0.0281346</v>
       </c>
     </row>
     <row r="10">
@@ -774,16 +774,16 @@
         <v>1605</v>
       </c>
       <c r="G10" t="n">
-        <v>0.07314908221526011</v>
+        <v>0.08376510909804977</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01331838</v>
+        <v>0.00599427</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5111074790794981</v>
+        <v>0.5111270920502092</v>
       </c>
       <c r="J10" t="n">
-        <v>0.00414263</v>
+        <v>0.00327714</v>
       </c>
     </row>
     <row r="11">
@@ -808,16 +808,16 @@
         <v>2205</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0686966393642064</v>
+        <v>0.08784802284579898</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02857581</v>
+        <v>0.01354161</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5097868723849374</v>
+        <v>0.5110159518828452</v>
       </c>
       <c r="J11" t="n">
-        <v>0.00664031</v>
+        <v>0.00428495</v>
       </c>
     </row>
   </sheetData>
